--- a/Concepts/target/classes/listeners_4_ControllingScript/ScriptControl.xlsx
+++ b/Concepts/target/classes/listeners_4_ControllingScript/ScriptControl.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>yes</t>
@@ -433,7 +430,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -468,10 +465,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
@@ -485,7 +482,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -502,7 +499,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
@@ -513,13 +510,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
